--- a/Listas de precios/minorista/BISAGRAS 1842 DISMAY.xlsx
+++ b/Listas de precios/minorista/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BISAGRAS 1842 DISMAY.xlsx
+++ b/Listas de precios/minorista/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BISAGRAS 1842 DISMAY.xlsx
+++ b/Listas de precios/minorista/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
